--- a/data/bacterial-metabolites_dose-simicillin.xlsx
+++ b/data/bacterial-metabolites_dose-simicillin.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffsocal/Local/github/ASMS_R_Basics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E962A358-D4B9-8444-A518-FCCBB1B0B274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9349119F-7A20-4642-BB2F-191A2995A9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="29360" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -209,11 +209,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -223,21 +234,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -256,9 +252,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -296,9 +292,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -331,26 +327,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -383,26 +362,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -579,7 +541,7 @@
   <dimension ref="A1:U16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -615,97 +577,97 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="2" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="2" t="s">
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="2" t="s">
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="4"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="11"/>
     </row>
     <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="M7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="N7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="O7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="P7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="Q7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R7" s="6" t="s">
+      <c r="R7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S7" s="6" t="s">
+      <c r="S7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T7" s="6" t="s">
+      <c r="T7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="7" t="s">
+      <c r="U7" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -713,129 +675,129 @@
       <c r="A8" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="4">
         <v>1375837</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8">
         <v>1910358</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8">
         <v>391392</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8">
         <v>354182</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="5">
         <v>1115669</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="4">
         <v>527</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8">
         <v>1698</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8">
         <v>706</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8">
         <v>2184</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="5">
         <v>902</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="4">
         <v>1437012</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8">
         <v>954454</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8">
         <v>1315077</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8">
         <v>701899</v>
       </c>
-      <c r="P8" s="10">
+      <c r="P8" s="5">
         <v>1755846</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="Q8" s="4">
         <v>125196620</v>
       </c>
-      <c r="R8" s="9">
+      <c r="R8">
         <v>20303583</v>
       </c>
-      <c r="S8" s="9">
+      <c r="S8">
         <v>85259472</v>
       </c>
-      <c r="T8" s="9">
+      <c r="T8">
         <v>119703977</v>
       </c>
-      <c r="U8" s="10">
-        <v>28364136</v>
+      <c r="U8" s="5">
+        <v>28364135</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="4">
         <v>118996</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9">
         <v>139249</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9">
         <v>114691</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9">
         <v>135509</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="5">
         <v>137167</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="4">
         <v>144</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9">
         <v>137</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9">
         <v>126</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9">
         <v>115</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="5">
         <v>118</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="4">
         <v>137308</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9">
         <v>115874</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9">
         <v>132167</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O9">
         <v>119773</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="5">
         <v>137503</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="Q9" s="4">
         <v>15160585</v>
       </c>
-      <c r="R9" s="9">
+      <c r="R9">
         <v>9476846</v>
       </c>
-      <c r="S9" s="9">
+      <c r="S9">
         <v>12661367</v>
       </c>
-      <c r="T9" s="9">
+      <c r="T9">
         <v>12007467</v>
       </c>
-      <c r="U9" s="10">
+      <c r="U9" s="5">
         <v>11492831</v>
       </c>
     </row>
@@ -843,64 +805,64 @@
       <c r="A10" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="4">
         <v>2001145</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10">
         <v>1674016</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10">
         <v>1624757</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10">
         <v>1121142</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="5">
         <v>8877</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="4">
         <v>94</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10">
         <v>330</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10">
         <v>142</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10">
         <v>935</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="5">
         <v>920</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="4">
         <v>2593646</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10">
         <v>810102</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10">
         <v>71894</v>
       </c>
-      <c r="O10" s="9">
+      <c r="O10">
         <v>1807854</v>
       </c>
-      <c r="P10" s="10">
+      <c r="P10" s="5">
         <v>1651818</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="Q10" s="4">
         <v>51206448</v>
       </c>
-      <c r="R10" s="9">
+      <c r="R10">
         <v>129056188</v>
       </c>
-      <c r="S10" s="9">
+      <c r="S10">
         <v>193334656</v>
       </c>
-      <c r="T10" s="9">
+      <c r="T10">
         <v>156148257</v>
       </c>
-      <c r="U10" s="10">
+      <c r="U10" s="5">
         <v>24133947</v>
       </c>
     </row>
@@ -908,64 +870,64 @@
       <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="4">
         <v>172133</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11">
         <v>487160</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11">
         <v>19789176</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11">
         <v>2578244</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="5">
         <v>256209</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="4">
         <v>207</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11">
         <v>10879</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11">
         <v>122834</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11">
         <v>2699</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="5">
         <v>87041</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="4">
         <v>261657</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11">
         <v>776714</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11">
         <v>20076674</v>
       </c>
-      <c r="O11" s="9">
+      <c r="O11">
         <v>1009823</v>
       </c>
-      <c r="P11" s="10">
+      <c r="P11" s="5">
         <v>24786</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="Q11" s="4">
         <v>139836613</v>
       </c>
-      <c r="R11" s="9">
+      <c r="R11">
         <v>8221056</v>
       </c>
-      <c r="S11" s="9">
+      <c r="S11">
         <v>1088267</v>
       </c>
-      <c r="T11" s="9">
+      <c r="T11">
         <v>115355</v>
       </c>
-      <c r="U11" s="10">
+      <c r="U11" s="5">
         <v>219749</v>
       </c>
     </row>
@@ -973,64 +935,64 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="4">
         <v>11146</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12">
         <v>113729</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12">
         <v>1376654</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12">
         <v>130332</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="5">
         <v>12993</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="4">
         <v>112</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12">
         <v>1362</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12">
         <v>15091</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12">
         <v>12389</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="5">
         <v>12105</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="4">
         <v>11381</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12">
         <v>134212</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12">
         <v>1210957</v>
       </c>
-      <c r="O12" s="9">
+      <c r="O12">
         <v>124377</v>
       </c>
-      <c r="P12" s="10">
+      <c r="P12" s="5">
         <v>10746</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="Q12" s="4">
         <v>14102149</v>
       </c>
-      <c r="R12" s="9">
+      <c r="R12">
         <v>1162472</v>
       </c>
-      <c r="S12" s="9">
+      <c r="S12">
         <v>115926</v>
       </c>
-      <c r="T12" s="9">
+      <c r="T12">
         <v>13180</v>
       </c>
-      <c r="U12" s="10">
+      <c r="U12" s="5">
         <v>13936</v>
       </c>
     </row>
@@ -1038,64 +1000,64 @@
       <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="4">
         <v>293679</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13">
         <v>1055770</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13">
         <v>7803139</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13">
         <v>1758114</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="5">
         <v>70609</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="4">
         <v>1744</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13">
         <v>7796</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13">
         <v>116676</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13">
         <v>184145</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K13" s="5">
         <v>113604</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="4">
         <v>237666</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M13">
         <v>1119833</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N13">
         <v>20354370</v>
       </c>
-      <c r="O13" s="9">
+      <c r="O13">
         <v>2560322</v>
       </c>
-      <c r="P13" s="10">
+      <c r="P13" s="5">
         <v>153076</v>
       </c>
-      <c r="Q13" s="8">
+      <c r="Q13" s="4">
         <v>56895876</v>
       </c>
-      <c r="R13" s="9">
+      <c r="R13">
         <v>22733918</v>
       </c>
-      <c r="S13" s="9">
+      <c r="S13">
         <v>1901798</v>
       </c>
-      <c r="T13" s="9">
+      <c r="T13">
         <v>83108</v>
       </c>
-      <c r="U13" s="10">
+      <c r="U13" s="5">
         <v>317809</v>
       </c>
     </row>
@@ -1103,64 +1065,64 @@
       <c r="A14" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="4">
         <v>133960</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14">
         <v>130580</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14">
         <v>125333</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14">
         <v>1568</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="5">
         <v>10</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="4">
         <v>942</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14">
         <v>206935</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14">
         <v>707462</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14">
         <v>21395106</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K14" s="5">
         <v>17504989</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="4">
         <v>219049</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14">
         <v>131966</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N14">
         <v>32404</v>
       </c>
-      <c r="O14" s="9">
+      <c r="O14">
         <v>1738</v>
       </c>
-      <c r="P14" s="10">
+      <c r="P14" s="5">
         <v>6</v>
       </c>
-      <c r="Q14" s="8">
+      <c r="Q14" s="4">
         <v>191386707</v>
       </c>
-      <c r="R14" s="9">
+      <c r="R14">
         <v>12914547</v>
       </c>
-      <c r="S14" s="9">
+      <c r="S14">
         <v>17762</v>
       </c>
-      <c r="T14" s="9">
+      <c r="T14">
         <v>1214</v>
       </c>
-      <c r="U14" s="10">
+      <c r="U14" s="5">
         <v>12</v>
       </c>
     </row>
@@ -1168,64 +1130,64 @@
       <c r="A15" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="4">
         <v>10683</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15">
         <v>11929</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15">
         <v>11531</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15">
         <v>117</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="5">
         <v>1</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="4">
         <v>116</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15">
         <v>11096</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15">
         <v>109347</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15">
         <v>1355347</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="5">
         <v>1489131</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="4">
         <v>11857</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15">
         <v>12801</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N15">
         <v>11986</v>
       </c>
-      <c r="O15" s="9">
+      <c r="O15">
         <v>129</v>
       </c>
-      <c r="P15" s="10">
+      <c r="P15" s="5">
         <v>1</v>
       </c>
-      <c r="Q15" s="8">
+      <c r="Q15" s="4">
         <v>14789219</v>
       </c>
-      <c r="R15" s="9">
+      <c r="R15">
         <v>1026298</v>
       </c>
-      <c r="S15" s="9">
+      <c r="S15">
         <v>12484</v>
       </c>
-      <c r="T15" s="9">
+      <c r="T15">
         <v>137</v>
       </c>
-      <c r="U15" s="10">
+      <c r="U15" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1233,64 +1195,64 @@
       <c r="A16" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="6">
         <v>47979</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="7">
         <v>45085</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="7">
         <v>385748</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="7">
         <v>1352</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="8">
         <v>27</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="6">
         <v>552</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="7">
         <v>37826</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="7">
         <v>652934</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="7">
         <v>23564208</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K16" s="8">
         <v>9114020</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L16" s="6">
         <v>192943</v>
       </c>
-      <c r="M16" s="12">
+      <c r="M16" s="7">
         <v>24239</v>
       </c>
-      <c r="N16" s="12">
+      <c r="N16" s="7">
         <v>7159</v>
       </c>
-      <c r="O16" s="12">
+      <c r="O16" s="7">
         <v>1109</v>
       </c>
-      <c r="P16" s="13">
+      <c r="P16" s="8">
         <v>8</v>
       </c>
-      <c r="Q16" s="11">
+      <c r="Q16" s="6">
         <v>74535677</v>
       </c>
-      <c r="R16" s="12">
+      <c r="R16" s="7">
         <v>20310417</v>
       </c>
-      <c r="S16" s="12">
+      <c r="S16" s="7">
         <v>185691</v>
       </c>
-      <c r="T16" s="12">
+      <c r="T16" s="7">
         <v>3037</v>
       </c>
-      <c r="U16" s="13">
+      <c r="U16" s="8">
         <v>11</v>
       </c>
     </row>
